--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value768.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value768.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.009684655220353</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>2.871785505735482</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.12358158431802</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.189272996533986</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.198790041557164</v>
+        <v>0.8446415662765503</v>
       </c>
     </row>
   </sheetData>
